--- a/data/s_vals/2023/garrett_braxton.xlsx
+++ b/data/s_vals/2023/garrett_braxton.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02638223935530792</v>
+        <v>9.318123435519965e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2163179218109788</v>
+        <v>0.05231270169004087</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4743886036040816</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E2" t="n">
-        <v>1.942068315706629</v>
+        <v>246.9852506941017</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.659157080476998</v>
+        <v>247.7503055649301</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4798548413538308</v>
+        <v>0.06328177979961902</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2163179218109788</v>
+        <v>0.05231270169004087</v>
       </c>
       <c r="D3" t="n">
-        <v>10.81613970437307</v>
+        <v>2938.103010863317</v>
       </c>
       <c r="E3" t="n">
-        <v>4.849643088080038</v>
+        <v>71517.89157740913</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16.36195555561792</v>
+        <v>74456.11018275394</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/garrett_braxton.xlsx
+++ b/data/s_vals/2023/garrett_braxton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>247.7503055649301</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>74456.11018275394</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/garrett_braxton.xlsx
+++ b/data/s_vals/2023/garrett_braxton.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.318123435519965e-06</v>
+        <v>1.295275857016165e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05231270169004087</v>
+        <v>0.04071648406533734</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7127328510149897</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>246.9852506941017</v>
+        <v>1133.036916526867</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>247.7503055649301</v>
+        <v>1133.830377573982</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06328177979961902</v>
+        <v>0.04271373187048222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05231270169004087</v>
+        <v>0.04071648406533734</v>
       </c>
       <c r="D3" t="n">
-        <v>2938.103010863317</v>
+        <v>6708.013860684405</v>
       </c>
       <c r="E3" t="n">
-        <v>71517.89157740913</v>
+        <v>2195978.878461985</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>74456.11018275394</v>
+        <v>2202686.975752885</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
